--- a/Feature-Analysis/Resize Feature/s_07_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_07_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.69574074075</v>
+        <v>738157.69574074075</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.69620370376</v>
+        <v>738157.69620370376</v>
       </c>
       <c r="C3" s="0">
         <v>40.000004321336746</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.69658564811</v>
+        <v>738157.69658564811</v>
       </c>
       <c r="C4" s="0">
         <v>72.999996319413185</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.69699074072</v>
+        <v>738157.69699074072</v>
       </c>
       <c r="C5" s="0">
         <v>107.99999758601189</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.69739583333</v>
+        <v>738157.69739583333</v>
       </c>
       <c r="C6" s="0">
         <v>142.99999885261059</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.69780092593</v>
+        <v>738157.69780092593</v>
       </c>
       <c r="C7" s="0">
         <v>178.00000011920929</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.69820601854</v>
+        <v>738157.69820601854</v>
       </c>
       <c r="C8" s="0">
         <v>213.00000138580799</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.69862268516</v>
+        <v>738157.69862268516</v>
       </c>
       <c r="C9" s="0">
         <v>248.99999722838402</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.69901620375</v>
+        <v>738157.69901620375</v>
       </c>
       <c r="C10" s="0">
         <v>283.00000391900539</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.69940972223</v>
+        <v>738157.69940972223</v>
       </c>
       <c r="C11" s="0">
         <v>317.00000055134296</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.69980324071</v>
+        <v>738157.69980324071</v>
       </c>
       <c r="C12" s="0">
         <v>350.99999718368053</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.70019675931</v>
+        <v>738157.70019675931</v>
       </c>
       <c r="C13" s="0">
         <v>385.00000387430191</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.70059027779</v>
+        <v>738157.70059027779</v>
       </c>
       <c r="C14" s="0">
         <v>419.00000050663948</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.70098379627</v>
+        <v>738157.70098379627</v>
       </c>
       <c r="C15" s="0">
         <v>452.99999713897705</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.70138888888</v>
+        <v>738157.70138888888</v>
       </c>
       <c r="C16" s="0">
         <v>487.99999840557575</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.70178240736</v>
+        <v>738157.70178240736</v>
       </c>
       <c r="C17" s="0">
         <v>521.99999503791332</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.70246527775</v>
+        <v>738157.70246527775</v>
       </c>
       <c r="C18" s="0">
         <v>580.99999688565731</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.70261574071</v>
+        <v>738157.70261574071</v>
       </c>
       <c r="C19" s="0">
         <v>593.99999678134918</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.70305555558</v>
+        <v>738157.70305555558</v>
       </c>
       <c r="C20" s="0">
         <v>632.00000189244747</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.70349537034</v>
+        <v>738157.70349537034</v>
       </c>
       <c r="C21" s="0">
         <v>669.99999694526196</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.70376157411</v>
+        <v>738157.70376157411</v>
       </c>
       <c r="C22" s="0">
         <v>693.00000295042992</v>
@@ -16282,7 +16282,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.70415509259</v>
+        <v>738157.70415509259</v>
       </c>
       <c r="C23" s="0">
         <v>726.99999958276749</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.70458333334</v>
+        <v>738157.70458333334</v>
       </c>
       <c r="C24" s="0">
         <v>764.00000005960464</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.70497685182</v>
+        <v>738157.70497685182</v>
       </c>
       <c r="C25" s="0">
         <v>797.99999669194221</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.70538194443</v>
+        <v>738157.70538194443</v>
       </c>
       <c r="C26" s="0">
         <v>832.99999795854092</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.70578703703</v>
+        <v>738157.70578703703</v>
       </c>
       <c r="C27" s="0">
         <v>867.99999922513962</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.70620370365</v>
+        <v>738157.70620370365</v>
       </c>
       <c r="C28" s="0">
         <v>903.99999506771564</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.70659722225</v>
+        <v>738157.70659722225</v>
       </c>
       <c r="C29" s="0">
         <v>938.00000175833702</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.70701388887</v>
+        <v>738157.70701388887</v>
       </c>
       <c r="C30" s="0">
         <v>973.99999760091305</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.7074305556</v>
+        <v>738157.7074305556</v>
       </c>
       <c r="C31" s="0">
         <v>1010.0000035017729</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.70770833339</v>
+        <v>738157.70770833339</v>
       </c>
       <c r="C32" s="0">
         <v>1034.0000040829182</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.70814814814</v>
+        <v>738157.70814814814</v>
       </c>
       <c r="C33" s="0">
         <v>1071.9999991357327</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.70856481476</v>
+        <v>738157.70856481476</v>
       </c>
       <c r="C34" s="0">
         <v>1107.9999949783087</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.7089814815</v>
+        <v>738157.7089814815</v>
       </c>
       <c r="C35" s="0">
         <v>1144.0000008791685</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.70940972224</v>
+        <v>738157.70940972224</v>
       </c>
       <c r="C36" s="0">
         <v>1181.0000013560057</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.70982638886</v>
+        <v>738157.70982638886</v>
       </c>
       <c r="C37" s="0">
         <v>1216.9999971985817</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.71009259264</v>
+        <v>738157.71009259264</v>
       </c>
       <c r="C38" s="0">
         <v>1240.0000032037497</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.71052083338</v>
+        <v>738157.71052083338</v>
       </c>
       <c r="C39" s="0">
         <v>1277.0000036805868</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.71100694442</v>
+        <v>738157.71100694442</v>
       </c>
       <c r="C40" s="0">
         <v>1318.9999971538782</v>
